--- a/BAF510채권/hw2/hw2_20249433최재필.xlsx
+++ b/BAF510채권/hw2/hw2_20249433최재필.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chlje\VSCodeProjects\KAIST_MFE\BAF510채권\hw2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VSCodeProjects\KAIST_MFE\BAF510채권\hw2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E21C90-4873-47C5-B3EA-66B4868587D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AF9DCE-52AA-45D6-BA1C-2B2F3476642B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -82,9 +82,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00000%"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -143,7 +140,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -430,17 +427,17 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
